--- a/LEP_Summary.xlsx
+++ b/LEP_Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesescobedo/projects/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709AF382-522E-7F47-AE87-1336A0C6991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCE4A3-8CF4-FD45-B90D-5BA788630B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>% of members with SUD</t>
-  </si>
-  <si>
-    <t># of Distinct Members with Mental Health Disorder (#)</t>
-  </si>
-  <si>
-    <t>% of members with Mental Health Disorders</t>
   </si>
   <si>
     <t>ENGLISH</t>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>MH Difference in % w/ English Speakers</t>
+  </si>
+  <si>
+    <t># of Distinct Members with Mental Health Condition (#)</t>
+  </si>
+  <si>
+    <t>% of members with Mental Health Conditions</t>
   </si>
 </sst>
 </file>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>445321</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>11985</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>4929</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>3209</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>2593</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>2258</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>1787</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>692</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8">
         <v>639</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>383</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>329</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>262</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>199</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>170</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>166</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>147</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6">
         <v>143</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3">
         <v>131</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6">
         <v>90</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3">
         <v>69</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6">
         <v>68</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>64</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3">
         <v>57</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>56</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
         <v>52</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3">
         <v>45</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3">
         <v>42</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3">
         <v>40</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3">
         <v>37</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3">
         <v>35</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3">
         <v>35</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3">
         <v>33</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <v>32</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3">
         <v>31</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3">
         <v>31</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3">
         <v>29</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3">
         <v>28</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3">
         <v>22</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3">
         <v>17</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3">
         <v>17</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3">
         <v>16</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3">
         <v>16</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3">
         <v>13</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="3">
         <v>12</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3">
         <v>11</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3">
         <v>10</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3">
         <v>10</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3">
         <v>6</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="51" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="52" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
         <v>5</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="53" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="54" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3">
         <v>5</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="55" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="56" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="3">
         <v>4</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="57" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="58" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="59" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="60" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="61" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="62" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="63" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="64" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="65" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="66" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="67" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3">
         <v>2</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="68" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3">
         <v>2</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="69" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="70" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3">
         <v>2</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="71" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="72" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="73" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="74" spans="1:29" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="75" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="76" spans="1:29" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>

--- a/LEP_Summary.xlsx
+++ b/LEP_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesescobedo/projects/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCE4A3-8CF4-FD45-B90D-5BA788630B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3307873-5C6F-B74C-B934-3C2582EA0529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,18 +331,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,18 +363,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +642,7 @@
       <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I1" s="3"/>
@@ -939,7 +922,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1092,415 +1075,415 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>639</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>37</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>5.7902973395931145E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>-0.11088987490899946</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>45</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>7.0422535211267609E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <f t="shared" si="3"/>
         <v>-0.26621777593507401</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>383</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>2.0887728459530026E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>-0.14790511984540058</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>75</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>0.195822454308094</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>-0.14081785683824763</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>329</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>5.4711246200607903E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>-0.11408160210432269</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>47</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="7">
         <f t="shared" si="3"/>
         <v>-0.19378316828919878</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>262</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>4.1984732824427481E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>-0.12680811548050314</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>32</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>0.12213740458015267</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <f t="shared" si="3"/>
         <v>-0.21450290656618898</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>199</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>30</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>0.15075376884422109</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>-1.8039079460709512E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>95</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>0.47738693467336685</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <f t="shared" si="3"/>
         <v>0.14074662352702522</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>170</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>-0.13938108359904824</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>53</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>0.31176470588235294</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <f t="shared" si="3"/>
         <v>-2.4875605263988687E-2</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>166</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>7</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>-0.12662417360613543</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>55</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>0.33132530120481929</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <f t="shared" si="3"/>
         <v>-5.3150099415223417E-3</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>147</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>0.1360544217687075</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>-3.2738426536223109E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>56</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>0.38095238095238093</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <f t="shared" si="3"/>
         <v>4.43120698060393E-2</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1551,58 +1534,58 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>131</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>3.8167938931297711E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>-0.13062490937363289</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>27</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7">
         <f t="shared" si="2"/>
         <v>0.20610687022900764</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
         <f t="shared" si="3"/>
         <v>-0.13053344091733399</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+    </row>
+    <row r="20" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1653,58 +1636,58 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>69</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>5.7971014492753624E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>-0.11082183381217697</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>15</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="7">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="7">
         <f t="shared" si="3"/>
         <v>-0.11924900679851555</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+    </row>
+    <row r="22" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1755,158 +1738,158 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>64</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>-0.1375428483049306</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>7</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="7">
         <f t="shared" si="2"/>
         <v>0.109375</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <f t="shared" si="3"/>
         <v>-0.22726531114634163</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+    </row>
+    <row r="24" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>57</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>7.0175438596491224E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>-9.861740970843938E-2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>8</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <f t="shared" si="2"/>
         <v>0.14035087719298245</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <f t="shared" si="3"/>
         <v>-0.19628943395335918</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>56</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>-0.13307856259064488</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <v>13</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="7">
         <f t="shared" si="2"/>
         <v>0.23214285714285715</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="7">
         <f t="shared" si="3"/>
         <v>-0.10449745400348448</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
